--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,42 +521,67 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Aircraft unable to return to home automatically</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4-10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori4/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,16 +462,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Battery not installed properly . Return to home immediately . Check and re-install battery .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,67 +521,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Strong wind warning . Aircraft unable to return to home automatically . Lower altitude immediately and return to home manually .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Aircraft unable to return to home automatically</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4-10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
